--- a/rhla_analysis/rhla1_6_uniform_result/k8.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k8.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0005972041040940501</v>
+        <v>0.0005895765581801983</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08506309499088865</v>
+        <v>0.08604244181408933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.257459505541347</v>
+        <v>0.1995926680244399</v>
       </c>
       <c r="D2" t="n">
-        <v>142.4355499363624</v>
+        <v>145.9393875490404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002329139013576374</v>
+        <v>0.002192317913708147</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09498516211569293</v>
+        <v>0.09454888045379341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2404092071611253</v>
+        <v>0.1873727087576375</v>
       </c>
       <c r="D3" t="n">
-        <v>40.7812335640044</v>
+        <v>43.12735842853686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0005783235439452656</v>
+        <v>0.000547682678122524</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08623721516798312</v>
+        <v>0.08524921325962093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2553282182438193</v>
+        <v>0.1999321113374067</v>
       </c>
       <c r="D4" t="n">
-        <v>149.1158644167959</v>
+        <v>155.6543901513524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001198186996761678</v>
+        <v>0.0008496050013165601</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08658656169079949</v>
+        <v>0.08615155925522448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2506393861892583</v>
+        <v>0.2002715546503734</v>
       </c>
       <c r="D5" t="n">
-        <v>72.26464810986572</v>
+        <v>101.4018974955689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0008915294143730274</v>
+        <v>0.0009140209916945077</v>
       </c>
       <c r="B6" t="n">
-        <v>0.093126822662946</v>
+        <v>0.09339996755972352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2485080988917306</v>
+        <v>0.1938221317040054</v>
       </c>
       <c r="D6" t="n">
-        <v>104.4573753390267</v>
+        <v>102.1858014295371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001260371034587363</v>
+        <v>0.001318416048780473</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0868663705036021</v>
+        <v>0.0871582903426929</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2561807331628304</v>
+        <v>0.1860149355057705</v>
       </c>
       <c r="D7" t="n">
-        <v>68.92126851522066</v>
+        <v>66.10833539482002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002255878114052767</v>
+        <v>0.001994987742894438</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09431799146727672</v>
+        <v>0.09367039212802158</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2723785166240409</v>
+        <v>0.2077393075356415</v>
       </c>
       <c r="D8" t="n">
-        <v>41.80987921276962</v>
+        <v>46.9528659820834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0008145228993420686</v>
+        <v>0.0009484761429435005</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09096718254634859</v>
+        <v>0.09055453853270093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2459505541346974</v>
+        <v>0.1924643584521385</v>
       </c>
       <c r="D9" t="n">
-        <v>111.6815532378861</v>
+        <v>95.47371244539056</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002147810827259415</v>
+        <v>0.001954298752078224</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1006738755686967</v>
+        <v>0.100118262647024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2446717817561807</v>
+        <v>0.1897488119484046</v>
       </c>
       <c r="D10" t="n">
-        <v>46.87278520574157</v>
+        <v>51.22976338216307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001322602960116562</v>
+        <v>0.001281550706512644</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09262984207063248</v>
+        <v>0.09314036988022945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.236999147485081</v>
+        <v>0.1832993890020367</v>
       </c>
       <c r="D11" t="n">
-        <v>70.03601599566127</v>
+        <v>72.67786550068161</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k8.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k8.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0005895765581801983</v>
+        <v>0.0005895765581801978</v>
       </c>
       <c r="B2" t="n">
         <v>0.08604244181408933</v>
@@ -466,12 +466,12 @@
         <v>0.1995926680244399</v>
       </c>
       <c r="D2" t="n">
-        <v>145.9393875490404</v>
+        <v>145.9393875490406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.002192317913708147</v>
+        <v>0.002192317913708137</v>
       </c>
       <c r="B3" t="n">
         <v>0.09454888045379341</v>
@@ -480,12 +480,12 @@
         <v>0.1873727087576375</v>
       </c>
       <c r="D3" t="n">
-        <v>43.12735842853686</v>
+        <v>43.12735842853706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.000547682678122524</v>
+        <v>0.0005476826781225249</v>
       </c>
       <c r="B4" t="n">
         <v>0.08524921325962093</v>
@@ -494,26 +494,26 @@
         <v>0.1999321113374067</v>
       </c>
       <c r="D4" t="n">
-        <v>155.6543901513524</v>
+        <v>155.6543901513522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0008496050013165601</v>
+        <v>0.0008496050013165636</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08615155925522448</v>
+        <v>0.0861515592552245</v>
       </c>
       <c r="C5" t="n">
         <v>0.2002715546503734</v>
       </c>
       <c r="D5" t="n">
-        <v>101.4018974955689</v>
+        <v>101.4018974955685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0009140209916945077</v>
+        <v>0.0009140209916945057</v>
       </c>
       <c r="B6" t="n">
         <v>0.09339996755972352</v>
@@ -522,12 +522,12 @@
         <v>0.1938221317040054</v>
       </c>
       <c r="D6" t="n">
-        <v>102.1858014295371</v>
+        <v>102.1858014295373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001318416048780473</v>
+        <v>0.001318416048780474</v>
       </c>
       <c r="B7" t="n">
         <v>0.0871582903426929</v>
@@ -536,12 +536,12 @@
         <v>0.1860149355057705</v>
       </c>
       <c r="D7" t="n">
-        <v>66.10833539482002</v>
+        <v>66.10833539481996</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.001994987742894438</v>
+        <v>0.001994987742894445</v>
       </c>
       <c r="B8" t="n">
         <v>0.09367039212802158</v>
@@ -550,12 +550,12 @@
         <v>0.2077393075356415</v>
       </c>
       <c r="D8" t="n">
-        <v>46.9528659820834</v>
+        <v>46.95286598208323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0009484761429435005</v>
+        <v>0.0009484761429434947</v>
       </c>
       <c r="B9" t="n">
         <v>0.09055453853270093</v>
@@ -564,12 +564,12 @@
         <v>0.1924643584521385</v>
       </c>
       <c r="D9" t="n">
-        <v>95.47371244539056</v>
+        <v>95.47371244539116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001954298752078224</v>
+        <v>0.001954298752078236</v>
       </c>
       <c r="B10" t="n">
         <v>0.100118262647024</v>
@@ -578,12 +578,12 @@
         <v>0.1897488119484046</v>
       </c>
       <c r="D10" t="n">
-        <v>51.22976338216307</v>
+        <v>51.22976338216274</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001281550706512644</v>
+        <v>0.001281550706512649</v>
       </c>
       <c r="B11" t="n">
         <v>0.09314036988022945</v>
@@ -592,7 +592,7 @@
         <v>0.1832993890020367</v>
       </c>
       <c r="D11" t="n">
-        <v>72.67786550068161</v>
+        <v>72.67786550068136</v>
       </c>
     </row>
   </sheetData>
